--- a/数据整理/stocks/A股/上证主板/603313-梦百合.xlsx
+++ b/数据整理/stocks/A股/上证主板/603313-梦百合.xlsx
@@ -451,323 +451,433 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001331</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003142</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003780</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华兴悦定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003143</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>007770</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>同泰开泰混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>89.01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2.52</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001332</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>007771</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>同泰开泰混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>89.01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2.52</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001331</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华弘信灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>26.16</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001332</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华弘信灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>26.16</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003493</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>25.09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003512</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>25.09</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003142</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华弘达灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>26.11</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003143</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华弘达灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>26.11</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003663</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华兴泰定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>26.61</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003780</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华兴悦定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>26.88</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,26 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001182</t>
+          <t>002351</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达安心回馈混合</t>
+          <t>易方达裕祥回报债券</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.47</t>
+          <t>341.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4573</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -846,26 +976,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009606</t>
+          <t>166011</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长信稳健精选混合A</t>
+          <t>中欧盛世成长混合 (LOF) -A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.38</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7986</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009607</t>
+          <t>001182</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长信稳健精选混合C</t>
+          <t>易方达安心回馈混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>29.38</t>
+          <t>40.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5931</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -912,15 +1062,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>84.10</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.55</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3824</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001307</t>
+          <t>519651</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧永裕混合C</t>
+          <t>银河转型增长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.10</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2879</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001888</t>
+          <t>003493</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧盛世成长混合 (LOF) -E</t>
+          <t>申万菱信安鑫优选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.59</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>166011</t>
+          <t>001030</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧盛世成长混合 (LOF) -A</t>
+          <t>天弘云端生活优选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84.59</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004233</t>
+          <t>009606</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧盛世成长混合 (LOF) -C</t>
+          <t>长信稳健精选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>84.59</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001030</t>
+          <t>001888</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘云端生活优选灵活配置混合</t>
+          <t>中欧盛世成长混合 (LOF) -E</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>83.03</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519651</t>
+          <t>004848</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>银河转型增长主题灵活配置混合</t>
+          <t>中欧睿泓定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.21</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>56.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002351</t>
+          <t>004233</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>易方达裕祥回报债券</t>
+          <t>中欧盛世成长混合 (LOF) -C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>20.12</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1136,15 +1366,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>86.82</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>3.46</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005313</t>
+          <t>003512</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强A</t>
+          <t>申万菱信安鑫优选混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005314</t>
+          <t>005313</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强C</t>
+          <t>万家中证1000指数增强A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>94.41</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1.03</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003493</t>
+          <t>001307</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>申万菱信安鑫优选混合A</t>
+          <t>中欧永裕混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26.53</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>003512</t>
+          <t>009607</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>申万菱信安鑫优选混合C</t>
+          <t>长信稳健精选混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>26.53</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004848</t>
+          <t>005314</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
+          <t>万家中证1000指数增强C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>56.92</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603313-梦百合.xlsx
+++ b/数据整理/stocks/A股/上证主板/603313-梦百合.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1581,4 +1582,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>53.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603313-梦百合.xlsx
+++ b/数据整理/stocks/A股/上证主板/603313-梦百合.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1790,4 +1791,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603313-梦百合.xlsx
+++ b/数据整理/stocks/A股/上证主板/603313-梦百合.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1799,7 +1800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,17 +1811,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1830,14 +1851,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.33</v>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1846,14 +1889,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.16</v>
+          <t>870008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发资管乾利一年持有期债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1862,13 +1927,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>872014</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发资管乾利一年持有期债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603313-梦百合.xlsx
+++ b/数据整理/stocks/A股/上证主板/603313-梦百合.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>5.16</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.57</v>
       </c>
     </row>
@@ -549,6 +566,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -718,7 +867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -926,7 +1075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1628,7 +1777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
